--- a/Coffee_Seeds.xlsx
+++ b/Coffee_Seeds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,77 +458,1601 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Coorg</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C2" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D2" t="n">
-        <v>5000</v>
+        <v>13896</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
       <c r="B3" t="n">
         <v>2021</v>
       </c>
       <c r="C3" t="n">
-        <v>600</v>
+        <v>961</v>
       </c>
       <c r="D3" t="n">
-        <v>6200</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Supplier C</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C4" t="n">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="D4" t="n">
-        <v>5800</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Supplier A</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C5" t="n">
-        <v>520</v>
+        <v>446</v>
       </c>
       <c r="D5" t="n">
-        <v>5300</v>
+        <v>10391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Supplier B</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C6" t="n">
+        <v>996</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7656</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>2022</v>
       </c>
-      <c r="C6" t="n">
-        <v>580</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6000</v>
+      <c r="C7" t="n">
+        <v>482</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13664</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C8" t="n">
+        <v>707</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8158</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C9" t="n">
+        <v>860</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8851</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C10" t="n">
+        <v>874</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8534</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="n">
+        <v>950</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10175</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C12" t="n">
+        <v>946</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C13" t="n">
+        <v>571</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6598</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C14" t="n">
+        <v>754</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7017</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C15" t="n">
+        <v>446</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11733</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C16" t="n">
+        <v>984</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14738</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C17" t="n">
+        <v>823</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C18" t="n">
+        <v>858</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C19" t="n">
+        <v>954</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="n">
+        <v>566</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6959</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C21" t="n">
+        <v>811</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10945</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C22" t="n">
+        <v>903</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C23" t="n">
+        <v>557</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C24" t="n">
+        <v>409</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C25" t="n">
+        <v>415</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C26" t="n">
+        <v>881</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6597</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C27" t="n">
+        <v>736</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C28" t="n">
+        <v>400</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13578</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C29" t="n">
+        <v>745</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C30" t="n">
+        <v>671</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C31" t="n">
+        <v>415</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8869</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C32" t="n">
+        <v>679</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10338</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C33" t="n">
+        <v>560</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C34" t="n">
+        <v>903</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8544</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C35" t="n">
+        <v>711</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C36" t="n">
+        <v>874</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C37" t="n">
+        <v>443</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C38" t="n">
+        <v>941</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C39" t="n">
+        <v>528</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12496</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C40" t="n">
+        <v>543</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C41" t="n">
+        <v>458</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10183</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C42" t="n">
+        <v>536</v>
+      </c>
+      <c r="D42" t="n">
+        <v>13899</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C43" t="n">
+        <v>594</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14793</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C44" t="n">
+        <v>548</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10321</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C45" t="n">
+        <v>777</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C46" t="n">
+        <v>600</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11531</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C47" t="n">
+        <v>541</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5756</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C48" t="n">
+        <v>830</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10057</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C49" t="n">
+        <v>950</v>
+      </c>
+      <c r="D49" t="n">
+        <v>7153</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C50" t="n">
+        <v>756</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C51" t="n">
+        <v>745</v>
+      </c>
+      <c r="D51" t="n">
+        <v>12835</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C52" t="n">
+        <v>586</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10436</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C53" t="n">
+        <v>788</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C54" t="n">
+        <v>441</v>
+      </c>
+      <c r="D54" t="n">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C55" t="n">
+        <v>918</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7821</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C56" t="n">
+        <v>707</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C57" t="n">
+        <v>867</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10259</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C58" t="n">
+        <v>568</v>
+      </c>
+      <c r="D58" t="n">
+        <v>13320</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C59" t="n">
+        <v>888</v>
+      </c>
+      <c r="D59" t="n">
+        <v>14915</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C60" t="n">
+        <v>556</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C61" t="n">
+        <v>769</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C62" t="n">
+        <v>659</v>
+      </c>
+      <c r="D62" t="n">
+        <v>13336</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C63" t="n">
+        <v>998</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9733</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C64" t="n">
+        <v>588</v>
+      </c>
+      <c r="D64" t="n">
+        <v>13688</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C65" t="n">
+        <v>935</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C66" t="n">
+        <v>736</v>
+      </c>
+      <c r="D66" t="n">
+        <v>7116</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C67" t="n">
+        <v>719</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10146</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C68" t="n">
+        <v>930</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C69" t="n">
+        <v>898</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C70" t="n">
+        <v>839</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10218</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C71" t="n">
+        <v>495</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7518</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C72" t="n">
+        <v>868</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7231</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C73" t="n">
+        <v>735</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10596</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C74" t="n">
+        <v>483</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C75" t="n">
+        <v>709</v>
+      </c>
+      <c r="D75" t="n">
+        <v>7449</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C76" t="n">
+        <v>811</v>
+      </c>
+      <c r="D76" t="n">
+        <v>6990</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C77" t="n">
+        <v>697</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6665</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C78" t="n">
+        <v>453</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C79" t="n">
+        <v>941</v>
+      </c>
+      <c r="D79" t="n">
+        <v>13755</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C80" t="n">
+        <v>848</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C81" t="n">
+        <v>870</v>
+      </c>
+      <c r="D81" t="n">
+        <v>12737</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C82" t="n">
+        <v>789</v>
+      </c>
+      <c r="D82" t="n">
+        <v>9737</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C83" t="n">
+        <v>820</v>
+      </c>
+      <c r="D83" t="n">
+        <v>7646</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C84" t="n">
+        <v>900</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C85" t="n">
+        <v>997</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9947</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C86" t="n">
+        <v>810</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C87" t="n">
+        <v>720</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C88" t="n">
+        <v>502</v>
+      </c>
+      <c r="D88" t="n">
+        <v>13233</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Nescafe</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C89" t="n">
+        <v>431</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C90" t="n">
+        <v>647</v>
+      </c>
+      <c r="D90" t="n">
+        <v>11884</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C91" t="n">
+        <v>821</v>
+      </c>
+      <c r="D91" t="n">
+        <v>12120</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C92" t="n">
+        <v>918</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10809</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C93" t="n">
+        <v>769</v>
+      </c>
+      <c r="D93" t="n">
+        <v>14611</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C94" t="n">
+        <v>528</v>
+      </c>
+      <c r="D94" t="n">
+        <v>13184</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C95" t="n">
+        <v>679</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8627</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C96" t="n">
+        <v>657</v>
+      </c>
+      <c r="D96" t="n">
+        <v>13410</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C97" t="n">
+        <v>425</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6296</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C98" t="n">
+        <v>957</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Tata Coffee</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C99" t="n">
+        <v>756</v>
+      </c>
+      <c r="D99" t="n">
+        <v>12147</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Blue Tokai</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C100" t="n">
+        <v>754</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9207</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Lavazza</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C101" t="n">
+        <v>538</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8826</v>
       </c>
     </row>
   </sheetData>

--- a/Coffee_Seeds.xlsx
+++ b/Coffee_Seeds.xlsx
@@ -458,33 +458,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2023</v>
       </c>
       <c r="C2" t="n">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="D2" t="n">
-        <v>13896</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C3" t="n">
-        <v>961</v>
+        <v>903</v>
       </c>
       <c r="D3" t="n">
-        <v>12927</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="4">
@@ -494,109 +494,109 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C4" t="n">
-        <v>579</v>
+        <v>526</v>
       </c>
       <c r="D4" t="n">
-        <v>5266</v>
+        <v>13403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="n">
-        <v>446</v>
+        <v>649</v>
       </c>
       <c r="D5" t="n">
-        <v>10391</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2020</v>
       </c>
       <c r="C6" t="n">
-        <v>996</v>
+        <v>614</v>
       </c>
       <c r="D6" t="n">
-        <v>7656</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C7" t="n">
-        <v>482</v>
+        <v>713</v>
       </c>
       <c r="D7" t="n">
-        <v>13664</v>
+        <v>9390</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C8" t="n">
-        <v>707</v>
+        <v>537</v>
       </c>
       <c r="D8" t="n">
-        <v>8158</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2020</v>
       </c>
       <c r="C9" t="n">
-        <v>860</v>
+        <v>539</v>
       </c>
       <c r="D9" t="n">
-        <v>8851</v>
+        <v>11631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C10" t="n">
-        <v>874</v>
+        <v>468</v>
       </c>
       <c r="D10" t="n">
-        <v>8534</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="11">
@@ -606,93 +606,93 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C11" t="n">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="D11" t="n">
-        <v>10175</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C12" t="n">
-        <v>946</v>
+        <v>746</v>
       </c>
       <c r="D12" t="n">
-        <v>10123</v>
+        <v>9406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C13" t="n">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D13" t="n">
-        <v>6598</v>
+        <v>13946</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C14" t="n">
-        <v>754</v>
+        <v>933</v>
       </c>
       <c r="D14" t="n">
-        <v>7017</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C15" t="n">
-        <v>446</v>
+        <v>679</v>
       </c>
       <c r="D15" t="n">
-        <v>11733</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C16" t="n">
-        <v>984</v>
+        <v>642</v>
       </c>
       <c r="D16" t="n">
-        <v>14738</v>
+        <v>13292</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C17" t="n">
-        <v>823</v>
+        <v>429</v>
       </c>
       <c r="D17" t="n">
-        <v>9130</v>
+        <v>10829</v>
       </c>
     </row>
     <row r="18">
@@ -718,125 +718,125 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C18" t="n">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="D18" t="n">
-        <v>5264</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C19" t="n">
-        <v>954</v>
+        <v>877</v>
       </c>
       <c r="D19" t="n">
-        <v>5119</v>
+        <v>11201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>2022</v>
       </c>
       <c r="C20" t="n">
-        <v>566</v>
+        <v>997</v>
       </c>
       <c r="D20" t="n">
-        <v>6959</v>
+        <v>8796</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C21" t="n">
-        <v>811</v>
+        <v>649</v>
       </c>
       <c r="D21" t="n">
-        <v>10945</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C22" t="n">
-        <v>903</v>
+        <v>742</v>
       </c>
       <c r="D22" t="n">
-        <v>5793</v>
+        <v>12056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C23" t="n">
-        <v>557</v>
+        <v>942</v>
       </c>
       <c r="D23" t="n">
-        <v>4611</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C24" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D24" t="n">
-        <v>6122</v>
+        <v>6346</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C25" t="n">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="D25" t="n">
-        <v>4210</v>
+        <v>13027</v>
       </c>
     </row>
     <row r="26">
@@ -846,45 +846,45 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C26" t="n">
-        <v>881</v>
+        <v>791</v>
       </c>
       <c r="D26" t="n">
-        <v>6597</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C27" t="n">
-        <v>736</v>
+        <v>437</v>
       </c>
       <c r="D27" t="n">
-        <v>5679</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C28" t="n">
-        <v>400</v>
+        <v>959</v>
       </c>
       <c r="D28" t="n">
-        <v>13578</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="29">
@@ -894,45 +894,45 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C29" t="n">
-        <v>745</v>
+        <v>479</v>
       </c>
       <c r="D29" t="n">
-        <v>7232</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C30" t="n">
-        <v>671</v>
+        <v>715</v>
       </c>
       <c r="D30" t="n">
-        <v>6190</v>
+        <v>12793</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2023</v>
       </c>
       <c r="C31" t="n">
-        <v>415</v>
+        <v>802</v>
       </c>
       <c r="D31" t="n">
-        <v>8869</v>
+        <v>9796</v>
       </c>
     </row>
     <row r="32">
@@ -942,29 +942,29 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C32" t="n">
-        <v>679</v>
+        <v>975</v>
       </c>
       <c r="D32" t="n">
-        <v>10338</v>
+        <v>10125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C33" t="n">
-        <v>560</v>
+        <v>619</v>
       </c>
       <c r="D33" t="n">
-        <v>5333</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="34">
@@ -974,61 +974,61 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C34" t="n">
-        <v>903</v>
+        <v>468</v>
       </c>
       <c r="D34" t="n">
-        <v>8544</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C35" t="n">
-        <v>711</v>
+        <v>899</v>
       </c>
       <c r="D35" t="n">
-        <v>6834</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C36" t="n">
-        <v>874</v>
+        <v>930</v>
       </c>
       <c r="D36" t="n">
-        <v>7064</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C37" t="n">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="D37" t="n">
-        <v>6024</v>
+        <v>8488</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C38" t="n">
-        <v>941</v>
+        <v>513</v>
       </c>
       <c r="D38" t="n">
-        <v>5077</v>
+        <v>14828</v>
       </c>
     </row>
     <row r="39">
@@ -1054,61 +1054,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C39" t="n">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="D39" t="n">
-        <v>12496</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C40" t="n">
-        <v>543</v>
+        <v>593</v>
       </c>
       <c r="D40" t="n">
-        <v>7508</v>
+        <v>13144</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C41" t="n">
-        <v>458</v>
+        <v>850</v>
       </c>
       <c r="D41" t="n">
-        <v>10183</v>
+        <v>9229</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C42" t="n">
-        <v>536</v>
+        <v>830</v>
       </c>
       <c r="D42" t="n">
-        <v>13899</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="43">
@@ -1118,45 +1118,45 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C43" t="n">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="D43" t="n">
-        <v>14793</v>
+        <v>9990</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C44" t="n">
-        <v>548</v>
+        <v>747</v>
       </c>
       <c r="D44" t="n">
-        <v>10321</v>
+        <v>8067</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C45" t="n">
-        <v>777</v>
+        <v>859</v>
       </c>
       <c r="D45" t="n">
-        <v>6559</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C46" t="n">
-        <v>600</v>
+        <v>684</v>
       </c>
       <c r="D46" t="n">
-        <v>11531</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="47">
@@ -1182,77 +1182,77 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C47" t="n">
-        <v>541</v>
+        <v>730</v>
       </c>
       <c r="D47" t="n">
-        <v>5756</v>
+        <v>9133</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C48" t="n">
-        <v>830</v>
+        <v>429</v>
       </c>
       <c r="D48" t="n">
-        <v>10057</v>
+        <v>8382</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C49" t="n">
-        <v>950</v>
+        <v>457</v>
       </c>
       <c r="D49" t="n">
-        <v>7153</v>
+        <v>13540</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C50" t="n">
-        <v>756</v>
+        <v>485</v>
       </c>
       <c r="D50" t="n">
-        <v>6430</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C51" t="n">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D51" t="n">
-        <v>12835</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C52" t="n">
-        <v>586</v>
+        <v>746</v>
       </c>
       <c r="D52" t="n">
-        <v>10436</v>
+        <v>14794</v>
       </c>
     </row>
     <row r="53">
@@ -1278,205 +1278,205 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C53" t="n">
-        <v>788</v>
+        <v>581</v>
       </c>
       <c r="D53" t="n">
-        <v>8010</v>
+        <v>8602</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C54" t="n">
-        <v>441</v>
+        <v>727</v>
       </c>
       <c r="D54" t="n">
-        <v>4769</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C55" t="n">
-        <v>918</v>
+        <v>699</v>
       </c>
       <c r="D55" t="n">
-        <v>7821</v>
+        <v>11507</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C56" t="n">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="D56" t="n">
-        <v>4019</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C57" t="n">
-        <v>867</v>
+        <v>798</v>
       </c>
       <c r="D57" t="n">
-        <v>10259</v>
+        <v>9515</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C58" t="n">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="D58" t="n">
-        <v>13320</v>
+        <v>9181</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C59" t="n">
-        <v>888</v>
+        <v>739</v>
       </c>
       <c r="D59" t="n">
-        <v>14915</v>
+        <v>8815</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C60" t="n">
-        <v>556</v>
+        <v>664</v>
       </c>
       <c r="D60" t="n">
-        <v>7417</v>
+        <v>13562</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2023</v>
       </c>
       <c r="C61" t="n">
-        <v>769</v>
+        <v>678</v>
       </c>
       <c r="D61" t="n">
-        <v>5387</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C62" t="n">
-        <v>659</v>
+        <v>842</v>
       </c>
       <c r="D62" t="n">
-        <v>13336</v>
+        <v>12843</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C63" t="n">
-        <v>998</v>
+        <v>618</v>
       </c>
       <c r="D63" t="n">
-        <v>9733</v>
+        <v>11677</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C64" t="n">
-        <v>588</v>
+        <v>860</v>
       </c>
       <c r="D64" t="n">
-        <v>13688</v>
+        <v>12541</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C65" t="n">
-        <v>935</v>
+        <v>512</v>
       </c>
       <c r="D65" t="n">
-        <v>5877</v>
+        <v>10632</v>
       </c>
     </row>
     <row r="66">
@@ -1489,106 +1489,106 @@
         <v>2024</v>
       </c>
       <c r="C66" t="n">
-        <v>736</v>
+        <v>516</v>
       </c>
       <c r="D66" t="n">
-        <v>7116</v>
+        <v>8426</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C67" t="n">
-        <v>719</v>
+        <v>788</v>
       </c>
       <c r="D67" t="n">
-        <v>10146</v>
+        <v>12367</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C68" t="n">
-        <v>930</v>
+        <v>898</v>
       </c>
       <c r="D68" t="n">
-        <v>5855</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C69" t="n">
-        <v>898</v>
+        <v>678</v>
       </c>
       <c r="D69" t="n">
-        <v>14212</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C70" t="n">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="D70" t="n">
-        <v>10218</v>
+        <v>8671</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>2021</v>
       </c>
       <c r="C71" t="n">
-        <v>495</v>
+        <v>597</v>
       </c>
       <c r="D71" t="n">
-        <v>7518</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>2022</v>
       </c>
       <c r="C72" t="n">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="D72" t="n">
-        <v>7231</v>
+        <v>10495</v>
       </c>
     </row>
     <row r="73">
@@ -1598,13 +1598,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C73" t="n">
-        <v>735</v>
+        <v>962</v>
       </c>
       <c r="D73" t="n">
-        <v>10596</v>
+        <v>9858</v>
       </c>
     </row>
     <row r="74">
@@ -1614,45 +1614,45 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C74" t="n">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="D74" t="n">
-        <v>8295</v>
+        <v>10804</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C75" t="n">
-        <v>709</v>
+        <v>776</v>
       </c>
       <c r="D75" t="n">
-        <v>7449</v>
+        <v>8950</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C76" t="n">
-        <v>811</v>
+        <v>712</v>
       </c>
       <c r="D76" t="n">
-        <v>6990</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="77">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C77" t="n">
-        <v>697</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>6665</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="78">
@@ -1681,42 +1681,42 @@
         <v>2023</v>
       </c>
       <c r="C78" t="n">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D78" t="n">
-        <v>8691</v>
+        <v>8601</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C79" t="n">
-        <v>941</v>
+        <v>422</v>
       </c>
       <c r="D79" t="n">
-        <v>13755</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>2020</v>
       </c>
       <c r="C80" t="n">
-        <v>848</v>
+        <v>974</v>
       </c>
       <c r="D80" t="n">
-        <v>6057</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="81">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C81" t="n">
-        <v>870</v>
+        <v>998</v>
       </c>
       <c r="D81" t="n">
-        <v>12737</v>
+        <v>11348</v>
       </c>
     </row>
     <row r="82">
@@ -1742,189 +1742,189 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C82" t="n">
-        <v>789</v>
+        <v>756</v>
       </c>
       <c r="D82" t="n">
-        <v>9737</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C83" t="n">
-        <v>820</v>
+        <v>538</v>
       </c>
       <c r="D83" t="n">
-        <v>7646</v>
+        <v>14977</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>2022</v>
       </c>
       <c r="C84" t="n">
-        <v>900</v>
+        <v>493</v>
       </c>
       <c r="D84" t="n">
-        <v>4650</v>
+        <v>9935</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Lavazza</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C85" t="n">
-        <v>997</v>
+        <v>709</v>
       </c>
       <c r="D85" t="n">
-        <v>9947</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C86" t="n">
-        <v>810</v>
+        <v>577</v>
       </c>
       <c r="D86" t="n">
-        <v>4205</v>
+        <v>14459</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C87" t="n">
-        <v>720</v>
+        <v>985</v>
       </c>
       <c r="D87" t="n">
-        <v>4016</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C88" t="n">
-        <v>502</v>
+        <v>795</v>
       </c>
       <c r="D88" t="n">
-        <v>13233</v>
+        <v>12065</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Nescafe</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C89" t="n">
-        <v>431</v>
+        <v>830</v>
       </c>
       <c r="D89" t="n">
-        <v>8480</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C90" t="n">
-        <v>647</v>
+        <v>559</v>
       </c>
       <c r="D90" t="n">
-        <v>11884</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C91" t="n">
-        <v>821</v>
+        <v>451</v>
       </c>
       <c r="D91" t="n">
-        <v>12120</v>
+        <v>8476</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C92" t="n">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D92" t="n">
-        <v>10809</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>2024</v>
       </c>
       <c r="C93" t="n">
-        <v>769</v>
+        <v>994</v>
       </c>
       <c r="D93" t="n">
-        <v>14611</v>
+        <v>5345</v>
       </c>
     </row>
     <row r="94">
@@ -1934,93 +1934,93 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C94" t="n">
-        <v>528</v>
+        <v>875</v>
       </c>
       <c r="D94" t="n">
-        <v>13184</v>
+        <v>8803</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>2024</v>
       </c>
       <c r="C95" t="n">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D95" t="n">
-        <v>8627</v>
+        <v>13362</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C96" t="n">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D96" t="n">
-        <v>13410</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Tata Coffee</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C97" t="n">
-        <v>425</v>
+        <v>943</v>
       </c>
       <c r="D97" t="n">
-        <v>6296</v>
+        <v>9543</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Blue Tokai</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C98" t="n">
-        <v>957</v>
+        <v>513</v>
       </c>
       <c r="D98" t="n">
-        <v>4874</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Tata Coffee</t>
+          <t>Blue Tokai</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>2022</v>
       </c>
       <c r="C99" t="n">
-        <v>756</v>
+        <v>790</v>
       </c>
       <c r="D99" t="n">
-        <v>12147</v>
+        <v>11598</v>
       </c>
     </row>
     <row r="100">
@@ -2030,29 +2030,29 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C100" t="n">
-        <v>754</v>
+        <v>529</v>
       </c>
       <c r="D100" t="n">
-        <v>9207</v>
+        <v>6298</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lavazza</t>
+          <t>Nescafe</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C101" t="n">
-        <v>538</v>
+        <v>763</v>
       </c>
       <c r="D101" t="n">
-        <v>8826</v>
+        <v>4846</v>
       </c>
     </row>
   </sheetData>
